--- a/robots/jackal/vision_based_navigation_ttt/tau_values/tau_value893.xlsx
+++ b/robots/jackal/vision_based_navigation_ttt/tau_values/tau_value893.xlsx
@@ -348,19 +348,19 @@
   <sheetData>
     <row r="1" spans="1:5">
       <c r="A1">
-        <v>1.489676691711087</v>
+        <v>2.830119371414185</v>
       </c>
       <c r="B1">
-        <v>2.32245682991282</v>
+        <v>2.626540899276733</v>
       </c>
       <c r="C1">
-        <v>2.69191111715382</v>
+        <v>1.701378345489502</v>
       </c>
       <c r="D1">
-        <v>3.10472429939694</v>
+        <v>1.454130887985229</v>
       </c>
       <c r="E1">
-        <v>2.100595140688072</v>
+        <v>1.408189296722412</v>
       </c>
     </row>
   </sheetData>
